--- a/biology/Médecine/Souplesse/Souplesse.xlsx
+++ b/biology/Médecine/Souplesse/Souplesse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>La souplesse désigne la qualité physique permettant d'accomplir des mouvements corporels avec la plus grande amplitude (articulaire et musculaire) et aisance possibles, que ce soit d'une manière active (en mouvement dynamique) ou passive (sans mouvement dynamique).
 De nombreux facteurs interviennent dans l'établissement de la souplesse : les éléments articulaires et musculaires, l'âge, la température ambiante, le relâchement psychologique...
